--- a/Big data info.xlsx
+++ b/Big data info.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Big data info.xlsx
+++ b/Big data info.xlsx
@@ -7,16 +7,19 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="ссылки" sheetId="1" r:id="rId1"/>
+    <sheet name="Impact Matrix" sheetId="5" r:id="rId2"/>
+    <sheet name="IM - Reality Assessment" sheetId="6" r:id="rId3"/>
+    <sheet name="IM - Quadrants" sheetId="7" r:id="rId4"/>
+    <sheet name="IM - Leadership Altitude" sheetId="8" r:id="rId5"/>
+    <sheet name="IM - Team Focus" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="78">
   <si>
     <t>Витрина данных для аналитика (настройка) -&gt; Вывод данных для пользователя (SQL/Spark (big data storage) -&gt; Tableau/Power BI)</t>
   </si>
@@ -34,13 +37,270 @@
   </si>
   <si>
     <t>https://habr.com/company/mobio/blog/430704/</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Насколько же вы с вашей аналитической работой имеете значение для денег бизнеса?
+Вы имеете значение, если как-то влияете на бизнес. Вы влияете на бизнес, если ваша аналитическая работа достаточно развита, чтобы строить метрики, которые имеют значение</t>
+  </si>
+  <si>
+    <t>Японцам понравится визуализация</t>
+  </si>
+  <si>
+    <t>Ценность</t>
+  </si>
+  <si>
+    <t>Super Strategic</t>
+  </si>
+  <si>
+    <t>Profit Per
+Human</t>
+  </si>
+  <si>
+    <t>Lifetime 
+Value</t>
+  </si>
+  <si>
+    <t>Inc. Profit
+per NL Channel</t>
+  </si>
+  <si>
+    <t>Incremental 
+Rev via Testing</t>
+  </si>
+  <si>
+    <t>Q/U</t>
+  </si>
+  <si>
+    <t>% Sales Influenced 
+per NL Channel</t>
+  </si>
+  <si>
+    <t>Per Visit 
+Goal Value</t>
+  </si>
+  <si>
+    <t>Repeat NonLine
+Purchases per Human</t>
+  </si>
+  <si>
+    <t>Task Completion
+Rate (by PP)</t>
+  </si>
+  <si>
+    <t>Likelihood to
+Recommend</t>
+  </si>
+  <si>
+    <t>Micro 
+Outcomes</t>
+  </si>
+  <si>
+    <t>Session 
+Quality</t>
+  </si>
+  <si>
+    <t>Assisted 
+Conversions</t>
+  </si>
+  <si>
+    <t>NonLine Direct
+Revenue</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>Gross 
+Profit</t>
+  </si>
+  <si>
+    <t>Cart-2-Detail
+Rate</t>
+  </si>
+  <si>
+    <t>Page Value</t>
+  </si>
+  <si>
+    <t>Daily 
+Active Users</t>
+  </si>
+  <si>
+    <t>Conversation
+Rate</t>
+  </si>
+  <si>
+    <t>Outbound
+Clicks</t>
+  </si>
+  <si>
+    <t>Cost per
+Acquisition</t>
+  </si>
+  <si>
+    <t>Retail Store
+Visits</t>
+  </si>
+  <si>
+    <t>Checkout 
+Abandon Rate</t>
+  </si>
+  <si>
+    <t>Ecommerce
+Revenue</t>
+  </si>
+  <si>
+    <t>Recency /
+Frequency</t>
+  </si>
+  <si>
+    <t>Click-2-Delivery
+Rate</t>
+  </si>
+  <si>
+    <t>Path 
+Length</t>
+  </si>
+  <si>
+    <t>Click-Thru 
+Rate</t>
+  </si>
+  <si>
+    <t>Page Depth</t>
+  </si>
+  <si>
+    <t>Purchase
+Intent</t>
+  </si>
+  <si>
+    <t>Click-Share
+(Search)</t>
+  </si>
+  <si>
+    <t>Unaided 
+Brand Recall</t>
+  </si>
+  <si>
+    <t>AVOC</t>
+  </si>
+  <si>
+    <t>Unique
+Page Views</t>
+  </si>
+  <si>
+    <t>Bounce Rates</t>
+  </si>
+  <si>
+    <t>% Completed
+Videos</t>
+  </si>
+  <si>
+    <t>Amplification
+Rate</t>
+  </si>
+  <si>
+    <t>Viewability</t>
+  </si>
+  <si>
+    <t>GRPs</t>
+  </si>
+  <si>
+    <t>Consideration</t>
+  </si>
+  <si>
+    <t>% New Visits</t>
+  </si>
+  <si>
+    <t>Applause 
+Rate</t>
+  </si>
+  <si>
+    <t>Awareness</t>
+  </si>
+  <si>
+    <t>Super Tactical</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>Visits</t>
+  </si>
+  <si>
+    <t>Real - Time</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>6-Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by Occam's Razor by Avinash Kaushik </t>
+  </si>
+  <si>
+    <t>CMO
+/
+VPs</t>
+  </si>
+  <si>
+    <t>Directors</t>
+  </si>
+  <si>
+    <t>Managers</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Meta Analysis</t>
+  </si>
+  <si>
+    <t>Визуализация аналитики в разрезе компании
+(вкладки в этой книге excel)</t>
+  </si>
+  <si>
+    <t>https://habr.com/post/428083/</t>
+  </si>
+  <si>
+    <t>https://habr.com/company/mosigra/blog/427133/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интересный способ классификации продуктов по значимости
+ABC / XYZ
+</t>
+  </si>
+  <si>
+    <t>Можно использовать для выстраивания приоритетности
+Например:
+ABX - выручка топовая, маржинальность средняя, спрос высокий</t>
+  </si>
+  <si>
+    <t>Построение единой информационной системы (могут пользоваться все внутри/за пределами компаниями) - больше идея, можно адаптировать</t>
+  </si>
+  <si>
+    <t>просто почитать</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +325,108 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9F9FFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFAFAFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF9900CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,11 +462,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -113,15 +477,79 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Гиперссылка 2" xfId="3"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,6 +559,851 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>322262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="323850"/>
+          <a:ext cx="4702175" cy="2665412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="72000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="4400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Intermediate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="9900CC"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>326303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6251575" y="326303"/>
+          <a:ext cx="4730750" cy="2664546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="72000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="4400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Advanced</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="9900CC"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1587</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>588962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1525587" y="3008313"/>
+          <a:ext cx="4702175" cy="2674937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="72000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4400">
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Solid Foundation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622303</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17461</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6261103" y="3009899"/>
+          <a:ext cx="4721222" cy="2674937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="72000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="4400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Intermediate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1030818</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>322783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3176</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5650443" y="7323658"/>
+          <a:ext cx="1058" cy="1067"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1024467</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>322783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7701492" y="7323658"/>
+          <a:ext cx="4233" cy="1067"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2117</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>322783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10993967" y="7323658"/>
+          <a:ext cx="5821" cy="1067"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="234950" y="2333625"/>
+          <a:ext cx="11985625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>396874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>396874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="242875" y="3930649"/>
+          <a:ext cx="11977700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>244472</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>396874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>396874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="244472" y="5530849"/>
+          <a:ext cx="11976103" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1024467</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>322783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3577167" y="322783"/>
+          <a:ext cx="4233" cy="7182917"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1030818</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>322783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3176</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5640918" y="322783"/>
+          <a:ext cx="1058" cy="7182917"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1024467</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>322783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7691967" y="322783"/>
+          <a:ext cx="4233" cy="7182917"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2117</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>322783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10984442" y="322783"/>
+          <a:ext cx="5821" cy="7182917"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,117 +1693,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.85546875" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -543,24 +1884,1883 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="14">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:K20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;A&amp;CThe Impact Matrix&amp;Rwww.kaushik.net</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:K20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;A&amp;CThe Impact Matrix&amp;Rwww.kaushik.net</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:K20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;A&amp;CThe Impact Matrix&amp;Rwww.kaushik.net</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:L20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="L7" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="2:12" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="B20:L20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;A&amp;CThe Impact Matrix&amp;Rwww.kaushik.net</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.42578125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B21:K21"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;A&amp;CThe Impact Matrix&amp;Rwww.kaushik.net</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Big data info.xlsx
+++ b/Big data info.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amatin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="ссылки" sheetId="1" r:id="rId1"/>
-    <sheet name="Impact Matrix" sheetId="5" r:id="rId2"/>
-    <sheet name="IM - Reality Assessment" sheetId="6" r:id="rId3"/>
-    <sheet name="IM - Quadrants" sheetId="7" r:id="rId4"/>
-    <sheet name="IM - Leadership Altitude" sheetId="8" r:id="rId5"/>
-    <sheet name="IM - Team Focus" sheetId="9" r:id="rId6"/>
+    <sheet name="поиск схожик строк Пайтон" sheetId="10" r:id="rId2"/>
+    <sheet name="Impact Matrix" sheetId="5" r:id="rId3"/>
+    <sheet name="IM - Reality Assessment" sheetId="6" r:id="rId4"/>
+    <sheet name="IM - Quadrants" sheetId="7" r:id="rId5"/>
+    <sheet name="IM - Leadership Altitude" sheetId="8" r:id="rId6"/>
+    <sheet name="IM - Team Focus" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -299,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,9 +526,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,6 +537,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -557,11 +563,1368 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7353936" cy="10425931"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="60960"/>
+          <a:ext cx="7353936" cy="10425931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Сначала задается функция схожести (можно не вдумываться, а сразу пользоваться)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import numpy as np</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>def levenshtein_ratio_and_distance(s, t, ratio_calc = False):</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    """ levenshtein_ratio_and_distance:</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Calculates levenshtein distance between two strings.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        If ratio_calc = True, the function computes the</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        levenshtein distance ratio of similarity between two strings</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        For all i and j, distance[i,j] will contain the Levenshtein</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        distance between the first i characters of s and the</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        first j characters of t</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    """</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    # Initialize matrix of zeros</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    rows = len(s)+1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    cols = len(t)+1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    distance = np.zeros((rows,cols),dtype = int)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    # Populate matrix of zeros with the indeces of each character of both strings</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    for i in range(1, rows):</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        for k in range(1,cols):</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            distance[i][0] = i</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            distance[0][k] = k</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    # Iterate over the matrix to compute the cost of deletions,insertions and/or substitutions    </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    for col in range(1, cols):</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        for row in range(1, rows):</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            if s[row-1] == t[col-1]:</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                cost = 0 # If the characters are the same in the two strings in a given position [i,j] then the cost is 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            else:</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                # In order to align the results with those of the Python Levenshtein package, if we choose to calculate the ratio</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                # the cost of a substitution is 2. If we calculate just distance, then the cost of a substitution is 1.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                if ratio_calc == True:</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    cost = 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                else:</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    cost = 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            distance[row][col] = min(distance[row-1][col] + 1,      # Cost of deletions</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                 distance[row][col-1] + 1,          # Cost of insertions</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                 distance[row-1][col-1] + cost)     # Cost of substitutions</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    if ratio_calc == True:</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        # Computation of the Levenshtein Distance Ratio</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Ratio = ((len(s)+len(t)) - distance[row][col]) / (len(s)+len(t))</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return Ratio</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    else:</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        # print(distance) # Uncomment if you want to see the matrix showing how the algorithm computes the cost of deletions,</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        # insertions and/or substitutions</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        # This is the minimum number of edits needed to convert string a to string b</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return "The strings are {} edits away".format(distance[row][col])</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>И просто подставляешь значения в функцию</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Str1 = "Irkin"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Str2 = "Irina"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Distance = levenshtein_ratio_and_distance(Str1,Str2)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>print(Distance)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ratio = levenshtein_ratio_and_distance(Str1,Str2,ratio_calc = True)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>print(Ratio)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Совпадают на 80%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -906,7 +2269,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1205,7 +2568,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1449,7 +2812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1484,7 +2847,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1696,18 +3059,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="1" max="1" width="79.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1721,7 +3084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +3096,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1745,7 +3108,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -1759,7 +3122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>74</v>
       </c>
@@ -1771,103 +3134,103 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
@@ -1884,6 +3247,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1891,16 +3269,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="8" customWidth="1"/>
     <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="18.42578125" style="8"/>
+    <col min="3" max="10" width="15.44140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>10</v>
@@ -1920,7 +3298,7 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="13"/>
       <c r="C3" s="10"/>
@@ -1936,7 +3314,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="13"/>
       <c r="C4" s="10"/>
@@ -1954,7 +3332,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="14">
         <v>68</v>
@@ -1972,7 +3350,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
@@ -1989,7 +3367,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
@@ -2006,7 +3384,7 @@
       <c r="J7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="14">
         <v>24</v>
@@ -2030,7 +3408,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
@@ -2049,7 +3427,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -2068,7 +3446,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="14">
         <v>10</v>
@@ -2096,7 +3474,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
@@ -2114,7 +3492,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="14"/>
       <c r="C13" s="12" t="s">
@@ -2137,7 +3515,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="14">
         <v>4</v>
@@ -2163,7 +3541,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="16"/>
       <c r="C15" s="10" t="s">
@@ -2183,7 +3561,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="13"/>
       <c r="C16" s="10"/>
@@ -2203,7 +3581,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
         <v>55</v>
@@ -2223,7 +3601,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
@@ -2247,378 +3625,20 @@
       </c>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B20:K20"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;A&amp;CThe Impact Matrix&amp;Rwww.kaushik.net</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:K20"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="18.42578125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
-        <v>68</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
-        <v>4</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="2:11" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2642,16 +3662,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="8" customWidth="1"/>
     <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="18.42578125" style="8"/>
+    <col min="3" max="10" width="15.44140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
@@ -2669,7 +3689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -2683,7 +3703,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2699,7 +3719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>68</v>
       </c>
@@ -2712,10 +3732,10 @@
       <c r="I5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2724,13 +3744,13 @@
       </c>
       <c r="F6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2745,7 +3765,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>24</v>
       </c>
@@ -2761,17 +3781,17 @@
         <v>23</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="10"/>
@@ -2784,7 +3804,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
@@ -2794,30 +3814,30 @@
       <c r="G10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="20" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -2827,7 +3847,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2835,7 +3855,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="10"/>
@@ -2843,12 +3863,12 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -2864,20 +3884,20 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="20" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -2888,13 +3908,13 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="21" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -2906,16 +3926,16 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="10"/>
@@ -2924,14 +3944,14 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="10"/>
@@ -2942,7 +3962,365 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="2:11" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:K20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;A&amp;CThe Impact Matrix&amp;Rwww.kaushik.net</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="15.44140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.44140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
         <v>58</v>
@@ -2964,20 +4342,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2993,7 +4371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3002,16 +4380,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="8" customWidth="1"/>
     <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="18.42578125" style="8"/>
+    <col min="3" max="10" width="15.44140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
@@ -3032,7 +4410,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -3047,7 +4425,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3064,7 +4442,7 @@
       </c>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>68</v>
       </c>
@@ -3081,7 +4459,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3097,7 +4475,7 @@
       </c>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3115,7 +4493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>24</v>
       </c>
@@ -3138,7 +4516,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3156,7 +4534,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
@@ -3174,7 +4552,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>10</v>
       </c>
@@ -3203,7 +4581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3220,7 +4598,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="12" t="s">
         <v>39</v>
@@ -3242,7 +4620,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>4</v>
       </c>
@@ -3267,7 +4645,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="10" t="s">
         <v>49</v>
@@ -3288,7 +4666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
@@ -3307,7 +4685,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>55</v>
       </c>
@@ -3326,7 +4704,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="2:12" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
         <v>58</v>
@@ -3348,21 +4726,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3382,7 +4760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3391,16 +4769,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="8" customWidth="1"/>
     <col min="2" max="2" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="15.42578125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="18.42578125" style="8"/>
+    <col min="3" max="10" width="15.44140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="18.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
@@ -3418,7 +4796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -3432,7 +4810,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3448,7 +4826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>68</v>
       </c>
@@ -3464,7 +4842,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3479,7 +4857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3494,7 +4872,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>24</v>
       </c>
@@ -3516,7 +4894,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3533,7 +4911,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
@@ -3550,7 +4928,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>10</v>
       </c>
@@ -3576,7 +4954,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3592,7 +4970,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="12" t="s">
         <v>39</v>
@@ -3613,7 +4991,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>4</v>
       </c>
@@ -3637,7 +5015,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="10" t="s">
         <v>49</v>
@@ -3655,7 +5033,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
@@ -3673,7 +5051,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>55</v>
       </c>
@@ -3691,7 +5069,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="2:11" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
         <v>58</v>
@@ -3713,7 +5091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="26" t="s">
         <v>67</v>
       </c>
@@ -3732,20 +5110,20 @@
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
     </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
